--- a/Psychological_Totals.xlsx
+++ b/Psychological_Totals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Prerna\PRERNA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manoj\PRERNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECB57C3-9BCB-431B-8215-A304979A6FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D7472A-DED5-4107-9432-99B6F2B5BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>162-2023</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>5-2022</t>
   </si>
   <si>
@@ -975,6 +972,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>228-2024</t>
   </si>
 </sst>
 </file>
@@ -3819,8 +3819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A304" sqref="A304"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3828,13 +3828,13 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="19" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
     <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3870,12 +3870,12 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2">
         <v>204</v>
@@ -3905,7 +3905,7 @@
         <v>9</v>
       </c>
       <c r="K2">
-        <f>SUM(D2:J2)</f>
+        <f t="shared" ref="K2:K65" si="0">SUM(D2:J2)</f>
         <v>74</v>
       </c>
       <c r="L2" t="str">
@@ -3915,7 +3915,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>143</v>
@@ -3945,7 +3945,7 @@
         <v>5</v>
       </c>
       <c r="K3">
-        <f>SUM(D3:J3)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="L3" t="str">
@@ -3955,7 +3955,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>9</v>
       </c>
       <c r="K4">
-        <f>SUM(D4:J4)</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="L4" t="str">
@@ -3995,7 +3995,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -4025,7 +4025,7 @@
         <v>9</v>
       </c>
       <c r="K5">
-        <f>SUM(D5:J5)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="L5" t="str">
@@ -4035,7 +4035,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6">
         <v>46</v>
@@ -4065,7 +4065,7 @@
         <v>9</v>
       </c>
       <c r="K6">
-        <f>SUM(D6:J6)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="L6" t="str">
@@ -4075,7 +4075,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7">
         <v>225</v>
@@ -4105,7 +4105,7 @@
         <v>9</v>
       </c>
       <c r="K7">
-        <f>SUM(D7:J7)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="L7" t="str">
@@ -4115,7 +4115,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8">
         <v>252</v>
@@ -4145,7 +4145,7 @@
         <v>9</v>
       </c>
       <c r="K8">
-        <f>SUM(D8:J8)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="L8" t="str">
@@ -4155,7 +4155,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>254</v>
@@ -4185,7 +4185,7 @@
         <v>9</v>
       </c>
       <c r="K9">
-        <f>SUM(D9:J9)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="L9" t="str">
@@ -4195,7 +4195,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>83</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUM(D10:J10)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="L10" t="str">
@@ -4235,7 +4235,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>222</v>
@@ -4265,7 +4265,7 @@
         <v>9</v>
       </c>
       <c r="K11">
-        <f>SUM(D11:J11)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="L11" t="str">
@@ -4275,7 +4275,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -4305,7 +4305,7 @@
         <v>8</v>
       </c>
       <c r="K12">
-        <f>SUM(D12:J12)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="L12" t="str">
@@ -4315,7 +4315,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13">
         <v>261</v>
@@ -4345,7 +4345,7 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <f>SUM(D13:J13)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="L13" t="str">
@@ -4355,7 +4355,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14">
         <v>122</v>
@@ -4385,7 +4385,7 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <f>SUM(D14:J14)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="L14" t="str">
@@ -4395,7 +4395,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15">
         <v>98</v>
@@ -4425,7 +4425,7 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <f>SUM(D15:J15)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="L15" t="str">
@@ -4465,7 +4465,7 @@
         <v>5</v>
       </c>
       <c r="K16">
-        <f>SUM(D16:J16)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="L16" t="str">
@@ -4475,7 +4475,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B17">
         <v>235</v>
@@ -4505,7 +4505,7 @@
         <v>9</v>
       </c>
       <c r="K17">
-        <f>SUM(D17:J17)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="L17" t="str">
@@ -4515,7 +4515,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18">
         <v>227</v>
@@ -4545,7 +4545,7 @@
         <v>9</v>
       </c>
       <c r="K18">
-        <f>SUM(D18:J18)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="L18" t="str">
@@ -4555,7 +4555,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>221</v>
@@ -4585,7 +4585,7 @@
         <v>4</v>
       </c>
       <c r="K19">
-        <f>SUM(D19:J19)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="L19" t="str">
@@ -4595,7 +4595,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20">
         <v>65</v>
@@ -4625,7 +4625,7 @@
         <v>4</v>
       </c>
       <c r="K20">
-        <f>SUM(D20:J20)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="L20" t="str">
@@ -4635,7 +4635,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>164</v>
@@ -4665,7 +4665,7 @@
         <v>4</v>
       </c>
       <c r="K21">
-        <f>SUM(D21:J21)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="L21" t="str">
@@ -4675,7 +4675,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22">
         <v>217</v>
@@ -4705,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="K22">
-        <f>SUM(D22:J22)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="L22" t="str">
@@ -4715,7 +4715,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23">
         <v>299</v>
@@ -4745,7 +4745,7 @@
         <v>4</v>
       </c>
       <c r="K23">
-        <f>SUM(D23:J23)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="L23" t="str">
@@ -4755,7 +4755,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B24">
         <v>36</v>
@@ -4785,7 +4785,7 @@
         <v>5</v>
       </c>
       <c r="K24">
-        <f>SUM(D24:J24)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="L24" t="str">
@@ -4795,7 +4795,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B25">
         <v>106</v>
@@ -4825,7 +4825,7 @@
         <v>9</v>
       </c>
       <c r="K25">
-        <f>SUM(D25:J25)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="L25" t="str">
@@ -4835,7 +4835,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B26">
         <v>49</v>
@@ -4865,7 +4865,7 @@
         <v>9</v>
       </c>
       <c r="K26">
-        <f>SUM(D26:J26)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="L26" t="str">
@@ -4875,7 +4875,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27">
         <v>87</v>
@@ -4905,7 +4905,7 @@
         <v>6</v>
       </c>
       <c r="K27">
-        <f>SUM(D27:J27)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="L27" t="str">
@@ -4915,7 +4915,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>196</v>
@@ -4945,7 +4945,7 @@
         <v>4</v>
       </c>
       <c r="K28">
-        <f>SUM(D28:J28)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="L28" t="str">
@@ -4955,7 +4955,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -4985,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="K29">
-        <f>SUM(D29:J29)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="L29" t="str">
@@ -4995,7 +4995,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30">
         <v>244</v>
@@ -5025,7 +5025,7 @@
         <v>6</v>
       </c>
       <c r="K30">
-        <f>SUM(D30:J30)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="L30" t="str">
@@ -5035,7 +5035,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31">
         <v>306</v>
@@ -5065,7 +5065,7 @@
         <v>5</v>
       </c>
       <c r="K31">
-        <f>SUM(D31:J31)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="L31" t="str">
@@ -5075,7 +5075,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32">
         <v>188</v>
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <f>SUM(D32:J32)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="L32" t="str">
@@ -5115,7 +5115,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33">
         <v>73</v>
@@ -5145,7 +5145,7 @@
         <v>6</v>
       </c>
       <c r="K33">
-        <f>SUM(D33:J33)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="L33" t="str">
@@ -5155,7 +5155,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34">
         <v>203</v>
@@ -5185,7 +5185,7 @@
         <v>2</v>
       </c>
       <c r="K34">
-        <f>SUM(D34:J34)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="L34" t="str">
@@ -5195,7 +5195,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B35">
         <v>193</v>
@@ -5225,7 +5225,7 @@
         <v>9</v>
       </c>
       <c r="K35">
-        <f>SUM(D35:J35)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="L35" t="str">
@@ -5235,7 +5235,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>79</v>
@@ -5265,7 +5265,7 @@
         <v>9</v>
       </c>
       <c r="K36">
-        <f>SUM(D36:J36)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="L36" t="str">
@@ -5275,7 +5275,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B37">
         <v>279</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <f>SUM(D37:J37)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="L37" t="str">
@@ -5315,7 +5315,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38">
         <v>194</v>
@@ -5345,7 +5345,7 @@
         <v>5</v>
       </c>
       <c r="K38">
-        <f>SUM(D38:J38)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="L38" t="str">
@@ -5355,7 +5355,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39">
         <v>294</v>
@@ -5385,7 +5385,7 @@
         <v>3</v>
       </c>
       <c r="K39">
-        <f>SUM(D39:J39)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="L39" t="str">
@@ -5395,7 +5395,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B40">
         <v>156</v>
@@ -5425,7 +5425,7 @@
         <v>4</v>
       </c>
       <c r="K40">
-        <f>SUM(D40:J40)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="L40" t="str">
@@ -5435,7 +5435,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41">
         <v>238</v>
@@ -5465,7 +5465,7 @@
         <v>6</v>
       </c>
       <c r="K41">
-        <f>SUM(D41:J41)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="L41" t="str">
@@ -5475,7 +5475,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>32</v>
@@ -5505,7 +5505,7 @@
         <v>2</v>
       </c>
       <c r="K42">
-        <f>SUM(D42:J42)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="L42" t="str">
@@ -5515,7 +5515,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B43">
         <v>189</v>
@@ -5545,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="K43">
-        <f>SUM(D43:J43)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="L43" t="str">
@@ -5555,7 +5555,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>191</v>
@@ -5585,7 +5585,7 @@
         <v>6</v>
       </c>
       <c r="K44">
-        <f>SUM(D44:J44)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="L44" t="str">
@@ -5595,7 +5595,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45">
         <v>263</v>
@@ -5625,7 +5625,7 @@
         <v>4</v>
       </c>
       <c r="K45">
-        <f>SUM(D45:J45)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="L45" t="str">
@@ -5635,7 +5635,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B46">
         <v>82</v>
@@ -5665,7 +5665,7 @@
         <v>7</v>
       </c>
       <c r="K46">
-        <f>SUM(D46:J46)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="L46" t="str">
@@ -5675,7 +5675,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B47">
         <v>219</v>
@@ -5705,7 +5705,7 @@
         <v>2</v>
       </c>
       <c r="K47">
-        <f>SUM(D47:J47)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="L47" t="str">
@@ -5715,7 +5715,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48">
         <v>116</v>
@@ -5745,7 +5745,7 @@
         <v>8</v>
       </c>
       <c r="K48">
-        <f>SUM(D48:J48)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="L48" t="str">
@@ -5755,7 +5755,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49">
         <v>255</v>
@@ -5785,7 +5785,7 @@
         <v>8</v>
       </c>
       <c r="K49">
-        <f>SUM(D49:J49)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="L49" t="str">
@@ -5795,7 +5795,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>139</v>
@@ -5825,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="K50">
-        <f>SUM(D50:J50)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="L50" t="str">
@@ -5835,7 +5835,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B51">
         <v>124</v>
@@ -5865,7 +5865,7 @@
         <v>4</v>
       </c>
       <c r="K51">
-        <f>SUM(D51:J51)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="L51" t="str">
@@ -5875,7 +5875,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52">
         <v>270</v>
@@ -5905,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="K52">
-        <f>SUM(D52:J52)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="L52" t="str">
@@ -5945,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <f>SUM(D53:J53)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="L53" t="str">
@@ -5955,7 +5955,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54">
         <v>197</v>
@@ -5985,7 +5985,7 @@
         <v>2</v>
       </c>
       <c r="K54">
-        <f>SUM(D54:J54)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="L54" t="str">
@@ -5995,7 +5995,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B55">
         <v>39</v>
@@ -6025,7 +6025,7 @@
         <v>6</v>
       </c>
       <c r="K55">
-        <f>SUM(D55:J55)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L55" t="str">
@@ -6035,7 +6035,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B56">
         <v>207</v>
@@ -6065,7 +6065,7 @@
         <v>7</v>
       </c>
       <c r="K56">
-        <f>SUM(D56:J56)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L56" t="str">
@@ -6075,7 +6075,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>59</v>
@@ -6105,7 +6105,7 @@
         <v>6</v>
       </c>
       <c r="K57">
-        <f>SUM(D57:J57)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="L57" t="str">
@@ -6115,7 +6115,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -6145,7 +6145,7 @@
         <v>5</v>
       </c>
       <c r="K58">
-        <f>SUM(D58:J58)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="L58" t="str">
@@ -6155,7 +6155,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59">
         <v>84</v>
@@ -6185,7 +6185,7 @@
         <v>6</v>
       </c>
       <c r="K59">
-        <f>SUM(D59:J59)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="L59" t="str">
@@ -6195,7 +6195,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B60">
         <v>211</v>
@@ -6225,7 +6225,7 @@
         <v>4</v>
       </c>
       <c r="K60">
-        <f>SUM(D60:J60)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="L60" t="str">
@@ -6235,7 +6235,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>44</v>
@@ -6265,7 +6265,7 @@
         <v>4</v>
       </c>
       <c r="K61">
-        <f>SUM(D61:J61)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="L61" t="str">
@@ -6275,7 +6275,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B62">
         <v>269</v>
@@ -6305,7 +6305,7 @@
         <v>5</v>
       </c>
       <c r="K62">
-        <f>SUM(D62:J62)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="L62" t="str">
@@ -6315,7 +6315,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63">
         <v>97</v>
@@ -6345,7 +6345,7 @@
         <v>7</v>
       </c>
       <c r="K63">
-        <f>SUM(D63:J63)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="L63" t="str">
@@ -6355,7 +6355,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B64">
         <v>132</v>
@@ -6385,7 +6385,7 @@
         <v>6</v>
       </c>
       <c r="K64">
-        <f>SUM(D64:J64)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="L64" t="str">
@@ -6395,7 +6395,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65">
         <v>289</v>
@@ -6425,7 +6425,7 @@
         <v>4</v>
       </c>
       <c r="K65">
-        <f>SUM(D65:J65)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="L65" t="str">
@@ -6435,7 +6435,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B66">
         <v>103</v>
@@ -6465,7 +6465,7 @@
         <v>9</v>
       </c>
       <c r="K66">
-        <f>SUM(D66:J66)</f>
+        <f t="shared" ref="K66:K129" si="1">SUM(D66:J66)</f>
         <v>49</v>
       </c>
       <c r="L66" t="str">
@@ -6505,7 +6505,7 @@
         <v>9</v>
       </c>
       <c r="K67">
-        <f>SUM(D67:J67)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="L67" t="str">
@@ -6515,7 +6515,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B68">
         <v>180</v>
@@ -6545,7 +6545,7 @@
         <v>5</v>
       </c>
       <c r="K68">
-        <f>SUM(D68:J68)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="L68" t="str">
@@ -6555,7 +6555,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B69">
         <v>102</v>
@@ -6585,7 +6585,7 @@
         <v>6</v>
       </c>
       <c r="K69">
-        <f>SUM(D69:J69)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="L69" t="str">
@@ -6595,7 +6595,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B70">
         <v>288</v>
@@ -6625,7 +6625,7 @@
         <v>7</v>
       </c>
       <c r="K70">
-        <f>SUM(D70:J70)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="L70" t="str">
@@ -6635,7 +6635,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B71">
         <v>115</v>
@@ -6665,7 +6665,7 @@
         <v>4</v>
       </c>
       <c r="K71">
-        <f>SUM(D71:J71)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="L71" t="str">
@@ -6675,7 +6675,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B72">
         <v>81</v>
@@ -6705,7 +6705,7 @@
         <v>4</v>
       </c>
       <c r="K72">
-        <f>SUM(D72:J72)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="L72" t="str">
@@ -6715,7 +6715,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>169</v>
@@ -6745,7 +6745,7 @@
         <v>3</v>
       </c>
       <c r="K73">
-        <f>SUM(D73:J73)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="L73" t="str">
@@ -6755,7 +6755,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B74">
         <v>63</v>
@@ -6785,7 +6785,7 @@
         <v>5</v>
       </c>
       <c r="K74">
-        <f>SUM(D74:J74)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="L74" t="str">
@@ -6795,7 +6795,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B75">
         <v>148</v>
@@ -6825,7 +6825,7 @@
         <v>6</v>
       </c>
       <c r="K75">
-        <f>SUM(D75:J75)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="L75" t="str">
@@ -6835,7 +6835,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B76">
         <v>66</v>
@@ -6865,7 +6865,7 @@
         <v>9</v>
       </c>
       <c r="K76">
-        <f>SUM(D76:J76)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="L76" t="str">
@@ -6875,7 +6875,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B77">
         <v>192</v>
@@ -6905,7 +6905,7 @@
         <v>9</v>
       </c>
       <c r="K77">
-        <f>SUM(D77:J77)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="L77" t="str">
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <f>SUM(D78:J78)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="L78" t="str">
@@ -6955,7 +6955,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79">
         <v>12</v>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <f>SUM(D79:J79)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="L79" t="str">
@@ -6995,7 +6995,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80">
         <v>229</v>
@@ -7025,7 +7025,7 @@
         <v>4</v>
       </c>
       <c r="K80">
-        <f>SUM(D80:J80)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="L80" t="str">
@@ -7035,7 +7035,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B81">
         <v>154</v>
@@ -7065,7 +7065,7 @@
         <v>3</v>
       </c>
       <c r="K81">
-        <f>SUM(D81:J81)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="L81" t="str">
@@ -7075,7 +7075,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82">
         <v>216</v>
@@ -7105,7 +7105,7 @@
         <v>5</v>
       </c>
       <c r="K82">
-        <f>SUM(D82:J82)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="L82" t="str">
@@ -7115,7 +7115,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B83">
         <v>206</v>
@@ -7145,7 +7145,7 @@
         <v>9</v>
       </c>
       <c r="K83">
-        <f>SUM(D83:J83)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="L83" t="str">
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <f>SUM(D84:J84)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="L84" t="str">
@@ -7195,7 +7195,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B85">
         <v>240</v>
@@ -7225,7 +7225,7 @@
         <v>9</v>
       </c>
       <c r="K85">
-        <f>SUM(D85:J85)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="L85" t="str">
@@ -7235,7 +7235,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B86">
         <v>92</v>
@@ -7265,7 +7265,7 @@
         <v>9</v>
       </c>
       <c r="K86">
-        <f>SUM(D86:J86)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="L86" t="str">
@@ -7275,7 +7275,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B87">
         <v>205</v>
@@ -7305,7 +7305,7 @@
         <v>9</v>
       </c>
       <c r="K87">
-        <f>SUM(D87:J87)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="L87" t="str">
@@ -7315,7 +7315,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B88">
         <v>96</v>
@@ -7345,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="K88">
-        <f>SUM(D88:J88)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="L88" t="str">
@@ -7355,7 +7355,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B89">
         <v>308</v>
@@ -7385,7 +7385,7 @@
         <v>4</v>
       </c>
       <c r="K89">
-        <f>SUM(D89:J89)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="L89" t="str">
@@ -7395,7 +7395,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -7425,7 +7425,7 @@
         <v>3</v>
       </c>
       <c r="K90">
-        <f>SUM(D90:J90)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="L90" t="str">
@@ -7435,7 +7435,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B91">
         <v>17</v>
@@ -7465,7 +7465,7 @@
         <v>5</v>
       </c>
       <c r="K91">
-        <f>SUM(D91:J91)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="L91" t="str">
@@ -7475,7 +7475,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B92">
         <v>99</v>
@@ -7505,7 +7505,7 @@
         <v>9</v>
       </c>
       <c r="K92">
-        <f>SUM(D92:J92)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="L92" t="str">
@@ -7545,7 +7545,7 @@
         <v>5</v>
       </c>
       <c r="K93">
-        <f>SUM(D93:J93)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="L93" t="str">
@@ -7555,7 +7555,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B94">
         <v>38</v>
@@ -7585,7 +7585,7 @@
         <v>3</v>
       </c>
       <c r="K94">
-        <f>SUM(D94:J94)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="L94" t="str">
@@ -7625,7 +7625,7 @@
         <v>2</v>
       </c>
       <c r="K95">
-        <f>SUM(D95:J95)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="L95" t="str">
@@ -7635,7 +7635,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B96">
         <v>21</v>
@@ -7665,7 +7665,7 @@
         <v>3</v>
       </c>
       <c r="K96">
-        <f>SUM(D96:J96)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="L96" t="str">
@@ -7675,7 +7675,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B97">
         <v>291</v>
@@ -7705,7 +7705,7 @@
         <v>4</v>
       </c>
       <c r="K97">
-        <f>SUM(D97:J97)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="L97" t="str">
@@ -7715,7 +7715,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B98">
         <v>176</v>
@@ -7745,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="K98">
-        <f>SUM(D98:J98)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="L98" t="str">
@@ -7755,7 +7755,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B99">
         <v>250</v>
@@ -7785,7 +7785,7 @@
         <v>6</v>
       </c>
       <c r="K99">
-        <f>SUM(D99:J99)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="L99" t="str">
@@ -7795,7 +7795,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100">
         <v>185</v>
@@ -7825,7 +7825,7 @@
         <v>5</v>
       </c>
       <c r="K100">
-        <f>SUM(D100:J100)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="L100" t="str">
@@ -7835,7 +7835,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B101">
         <v>239</v>
@@ -7865,7 +7865,7 @@
         <v>6</v>
       </c>
       <c r="K101">
-        <f>SUM(D101:J101)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="L101" t="str">
@@ -7875,7 +7875,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B102">
         <v>16</v>
@@ -7905,7 +7905,7 @@
         <v>9</v>
       </c>
       <c r="K102">
-        <f>SUM(D102:J102)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="L102" t="str">
@@ -7915,7 +7915,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B103">
         <v>284</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <f>SUM(D103:J103)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="L103" t="str">
@@ -7955,7 +7955,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>74</v>
@@ -7985,7 +7985,7 @@
         <v>2</v>
       </c>
       <c r="K104">
-        <f>SUM(D104:J104)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="L104" t="str">
@@ -7995,7 +7995,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105">
         <v>53</v>
@@ -8025,7 +8025,7 @@
         <v>3</v>
       </c>
       <c r="K105">
-        <f>SUM(D105:J105)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="L105" t="str">
@@ -8035,7 +8035,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B106">
         <v>301</v>
@@ -8065,7 +8065,7 @@
         <v>7</v>
       </c>
       <c r="K106">
-        <f>SUM(D106:J106)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="L106" t="str">
@@ -8075,7 +8075,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B107">
         <v>142</v>
@@ -8105,7 +8105,7 @@
         <v>4</v>
       </c>
       <c r="K107">
-        <f>SUM(D107:J107)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="L107" t="str">
@@ -8115,7 +8115,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B108">
         <v>292</v>
@@ -8145,7 +8145,7 @@
         <v>3</v>
       </c>
       <c r="K108">
-        <f>SUM(D108:J108)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="L108" t="str">
@@ -8155,7 +8155,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B109">
         <v>268</v>
@@ -8185,7 +8185,7 @@
         <v>4</v>
       </c>
       <c r="K109">
-        <f>SUM(D109:J109)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="L109" t="str">
@@ -8195,7 +8195,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B110">
         <v>147</v>
@@ -8225,7 +8225,7 @@
         <v>5</v>
       </c>
       <c r="K110">
-        <f>SUM(D110:J110)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="L110" t="str">
@@ -8235,7 +8235,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B111">
         <v>280</v>
@@ -8265,7 +8265,7 @@
         <v>5</v>
       </c>
       <c r="K111">
-        <f>SUM(D111:J111)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="L111" t="str">
@@ -8275,7 +8275,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B112">
         <v>86</v>
@@ -8305,7 +8305,7 @@
         <v>2</v>
       </c>
       <c r="K112">
-        <f>SUM(D112:J112)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="L112" t="str">
@@ -8315,7 +8315,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B113">
         <v>27</v>
@@ -8345,7 +8345,7 @@
         <v>5</v>
       </c>
       <c r="K113">
-        <f>SUM(D113:J113)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="L113" t="str">
@@ -8355,7 +8355,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B114">
         <v>29</v>
@@ -8385,7 +8385,7 @@
         <v>5</v>
       </c>
       <c r="K114">
-        <f>SUM(D114:J114)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="L114" t="str">
@@ -8395,7 +8395,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115">
         <v>305</v>
@@ -8425,7 +8425,7 @@
         <v>9</v>
       </c>
       <c r="K115">
-        <f>SUM(D115:J115)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="L115" t="str">
@@ -8435,7 +8435,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B116">
         <v>241</v>
@@ -8465,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <f>SUM(D116:J116)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="L116" t="str">
@@ -8475,7 +8475,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B117">
         <v>45</v>
@@ -8505,7 +8505,7 @@
         <v>2</v>
       </c>
       <c r="K117">
-        <f>SUM(D117:J117)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="L117" t="str">
@@ -8515,7 +8515,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B118">
         <v>112</v>
@@ -8545,7 +8545,7 @@
         <v>3</v>
       </c>
       <c r="K118">
-        <f>SUM(D118:J118)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="L118" t="str">
@@ -8555,7 +8555,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B119">
         <v>121</v>
@@ -8585,7 +8585,7 @@
         <v>2</v>
       </c>
       <c r="K119">
-        <f>SUM(D119:J119)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="L119" t="str">
@@ -8595,7 +8595,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B120">
         <v>150</v>
@@ -8625,7 +8625,7 @@
         <v>4</v>
       </c>
       <c r="K120">
-        <f>SUM(D120:J120)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="L120" t="str">
@@ -8635,7 +8635,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B121">
         <v>47</v>
@@ -8665,7 +8665,7 @@
         <v>9</v>
       </c>
       <c r="K121">
-        <f>SUM(D121:J121)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="L121" t="str">
@@ -8675,7 +8675,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B122">
         <v>262</v>
@@ -8705,7 +8705,7 @@
         <v>7</v>
       </c>
       <c r="K122">
-        <f>SUM(D122:J122)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="L122" t="str">
@@ -8715,7 +8715,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B123">
         <v>278</v>
@@ -8745,7 +8745,7 @@
         <v>8</v>
       </c>
       <c r="K123">
-        <f>SUM(D123:J123)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="L123" t="str">
@@ -8785,7 +8785,7 @@
         <v>9</v>
       </c>
       <c r="K124">
-        <f>SUM(D124:J124)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="L124" t="str">
@@ -8795,7 +8795,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B125">
         <v>167</v>
@@ -8825,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="K125">
-        <f>SUM(D125:J125)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="L125" t="str">
@@ -8835,7 +8835,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B126">
         <v>48</v>
@@ -8865,7 +8865,7 @@
         <v>3</v>
       </c>
       <c r="K126">
-        <f>SUM(D126:J126)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="L126" t="str">
@@ -8875,7 +8875,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B127">
         <v>232</v>
@@ -8905,7 +8905,7 @@
         <v>4</v>
       </c>
       <c r="K127">
-        <f>SUM(D127:J127)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="L127" t="str">
@@ -8915,7 +8915,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B128">
         <v>181</v>
@@ -8945,7 +8945,7 @@
         <v>2</v>
       </c>
       <c r="K128">
-        <f>SUM(D128:J128)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="L128" t="str">
@@ -8955,7 +8955,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B129">
         <v>114</v>
@@ -8985,7 +8985,7 @@
         <v>7</v>
       </c>
       <c r="K129">
-        <f>SUM(D129:J129)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="L129" t="str">
@@ -8995,7 +8995,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B130">
         <v>163</v>
@@ -9025,7 +9025,7 @@
         <v>5</v>
       </c>
       <c r="K130">
-        <f>SUM(D130:J130)</f>
+        <f t="shared" ref="K130:K193" si="2">SUM(D130:J130)</f>
         <v>40</v>
       </c>
       <c r="L130" t="str">
@@ -9035,7 +9035,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B131">
         <v>151</v>
@@ -9065,7 +9065,7 @@
         <v>5</v>
       </c>
       <c r="K131">
-        <f>SUM(D131:J131)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L131" t="str">
@@ -9075,7 +9075,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B132">
         <v>298</v>
@@ -9105,7 +9105,7 @@
         <v>7</v>
       </c>
       <c r="K132">
-        <f>SUM(D132:J132)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L132" t="str">
@@ -9115,7 +9115,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B133">
         <v>275</v>
@@ -9145,7 +9145,7 @@
         <v>3</v>
       </c>
       <c r="K133">
-        <f>SUM(D133:J133)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="L133" t="str">
@@ -9155,7 +9155,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B134">
         <v>10</v>
@@ -9185,7 +9185,7 @@
         <v>2</v>
       </c>
       <c r="K134">
-        <f>SUM(D134:J134)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="L134" t="str">
@@ -9195,7 +9195,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B135">
         <v>300</v>
@@ -9225,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="K135">
-        <f>SUM(D135:J135)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="L135" t="str">
@@ -9235,7 +9235,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -9265,7 +9265,7 @@
         <v>4</v>
       </c>
       <c r="K136">
-        <f>SUM(D136:J136)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="L136" t="str">
@@ -9275,7 +9275,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B137">
         <v>43</v>
@@ -9305,7 +9305,7 @@
         <v>4</v>
       </c>
       <c r="K137">
-        <f>SUM(D137:J137)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="L137" t="str">
@@ -9345,7 +9345,7 @@
         <v>2</v>
       </c>
       <c r="K138">
-        <f>SUM(D138:J138)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="L138" t="str">
@@ -9355,7 +9355,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139">
         <v>245</v>
@@ -9385,7 +9385,7 @@
         <v>8</v>
       </c>
       <c r="K139">
-        <f>SUM(D139:J139)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="L139" t="str">
@@ -9395,7 +9395,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B140">
         <v>231</v>
@@ -9425,7 +9425,7 @@
         <v>5</v>
       </c>
       <c r="K140">
-        <f>SUM(D140:J140)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="L140" t="str">
@@ -9435,7 +9435,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B141">
         <v>20</v>
@@ -9465,7 +9465,7 @@
         <v>9</v>
       </c>
       <c r="K141">
-        <f>SUM(D141:J141)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="L141" t="str">
@@ -9475,7 +9475,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B142">
         <v>134</v>
@@ -9505,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="K142">
-        <f>SUM(D142:J142)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L142" t="str">
@@ -9515,7 +9515,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B143">
         <v>186</v>
@@ -9545,7 +9545,7 @@
         <v>4</v>
       </c>
       <c r="K143">
-        <f>SUM(D143:J143)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L143" t="str">
@@ -9585,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="K144">
-        <f>SUM(D144:J144)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L144" t="str">
@@ -9595,7 +9595,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B145">
         <v>15</v>
@@ -9625,7 +9625,7 @@
         <v>3</v>
       </c>
       <c r="K145">
-        <f>SUM(D145:J145)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L145" t="str">
@@ -9635,7 +9635,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B146">
         <v>172</v>
@@ -9665,7 +9665,7 @@
         <v>3</v>
       </c>
       <c r="K146">
-        <f>SUM(D146:J146)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L146" t="str">
@@ -9675,7 +9675,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B147">
         <v>133</v>
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="K147">
-        <f>SUM(D147:J147)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L147" t="str">
@@ -9715,7 +9715,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B148">
         <v>198</v>
@@ -9745,7 +9745,7 @@
         <v>6</v>
       </c>
       <c r="K148">
-        <f>SUM(D148:J148)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L148" t="str">
@@ -9755,7 +9755,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B149">
         <v>111</v>
@@ -9785,7 +9785,7 @@
         <v>6</v>
       </c>
       <c r="K149">
-        <f>SUM(D149:J149)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L149" t="str">
@@ -9795,7 +9795,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B150">
         <v>286</v>
@@ -9825,7 +9825,7 @@
         <v>2</v>
       </c>
       <c r="K150">
-        <f>SUM(D150:J150)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L150" t="str">
@@ -9835,7 +9835,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B151">
         <v>153</v>
@@ -9865,7 +9865,7 @@
         <v>3</v>
       </c>
       <c r="K151">
-        <f>SUM(D151:J151)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L151" t="str">
@@ -9875,7 +9875,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B152">
         <v>187</v>
@@ -9905,7 +9905,7 @@
         <v>2</v>
       </c>
       <c r="K152">
-        <f>SUM(D152:J152)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L152" t="str">
@@ -9915,7 +9915,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153">
         <v>183</v>
@@ -9945,7 +9945,7 @@
         <v>4</v>
       </c>
       <c r="K153">
-        <f>SUM(D153:J153)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L153" t="str">
@@ -9955,7 +9955,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B154">
         <v>131</v>
@@ -9985,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="K154">
-        <f>SUM(D154:J154)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L154" t="str">
@@ -9995,7 +9995,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B155">
         <v>213</v>
@@ -10025,7 +10025,7 @@
         <v>2</v>
       </c>
       <c r="K155">
-        <f>SUM(D155:J155)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L155" t="str">
@@ -10035,7 +10035,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B156">
         <v>80</v>
@@ -10065,7 +10065,7 @@
         <v>4</v>
       </c>
       <c r="K156">
-        <f>SUM(D156:J156)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L156" t="str">
@@ -10075,7 +10075,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B157">
         <v>267</v>
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="K157">
-        <f>SUM(D157:J157)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L157" t="str">
@@ -10115,7 +10115,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B158">
         <v>101</v>
@@ -10145,7 +10145,7 @@
         <v>4</v>
       </c>
       <c r="K158">
-        <f>SUM(D158:J158)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L158" t="str">
@@ -10155,7 +10155,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B159">
         <v>273</v>
@@ -10185,7 +10185,7 @@
         <v>4</v>
       </c>
       <c r="K159">
-        <f>SUM(D159:J159)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L159" t="str">
@@ -10195,7 +10195,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B160">
         <v>77</v>
@@ -10225,7 +10225,7 @@
         <v>4</v>
       </c>
       <c r="K160">
-        <f>SUM(D160:J160)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L160" t="str">
@@ -10235,7 +10235,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B161">
         <v>26</v>
@@ -10265,7 +10265,7 @@
         <v>4</v>
       </c>
       <c r="K161">
-        <f>SUM(D161:J161)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L161" t="str">
@@ -10275,7 +10275,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B162">
         <v>28</v>
@@ -10305,7 +10305,7 @@
         <v>3</v>
       </c>
       <c r="K162">
-        <f>SUM(D162:J162)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L162" t="str">
@@ -10315,7 +10315,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B163">
         <v>165</v>
@@ -10345,7 +10345,7 @@
         <v>3</v>
       </c>
       <c r="K163">
-        <f>SUM(D163:J163)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L163" t="str">
@@ -10355,7 +10355,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B164">
         <v>274</v>
@@ -10385,7 +10385,7 @@
         <v>3</v>
       </c>
       <c r="K164">
-        <f>SUM(D164:J164)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L164" t="str">
@@ -10395,7 +10395,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B165">
         <v>177</v>
@@ -10425,7 +10425,7 @@
         <v>4</v>
       </c>
       <c r="K165">
-        <f>SUM(D165:J165)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L165" t="str">
@@ -10435,7 +10435,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B166">
         <v>190</v>
@@ -10465,7 +10465,7 @@
         <v>4</v>
       </c>
       <c r="K166">
-        <f>SUM(D166:J166)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L166" t="str">
@@ -10475,7 +10475,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -10505,7 +10505,7 @@
         <v>8</v>
       </c>
       <c r="K167">
-        <f>SUM(D167:J167)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L167" t="str">
@@ -10515,7 +10515,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B168">
         <v>61</v>
@@ -10545,7 +10545,7 @@
         <v>9</v>
       </c>
       <c r="K168">
-        <f>SUM(D168:J168)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L168" t="str">
@@ -10555,7 +10555,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B169">
         <v>70</v>
@@ -10585,7 +10585,7 @@
         <v>7</v>
       </c>
       <c r="K169">
-        <f>SUM(D169:J169)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L169" t="str">
@@ -10595,7 +10595,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B170">
         <v>85</v>
@@ -10625,7 +10625,7 @@
         <v>6</v>
       </c>
       <c r="K170">
-        <f>SUM(D170:J170)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L170" t="str">
@@ -10635,7 +10635,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B171">
         <v>256</v>
@@ -10665,7 +10665,7 @@
         <v>5</v>
       </c>
       <c r="K171">
-        <f>SUM(D171:J171)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L171" t="str">
@@ -10675,7 +10675,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B172">
         <v>64</v>
@@ -10705,7 +10705,7 @@
         <v>5</v>
       </c>
       <c r="K172">
-        <f>SUM(D172:J172)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L172" t="str">
@@ -10715,7 +10715,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B173">
         <v>220</v>
@@ -10745,7 +10745,7 @@
         <v>4</v>
       </c>
       <c r="K173">
-        <f>SUM(D173:J173)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L173" t="str">
@@ -10755,7 +10755,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B174">
         <v>105</v>
@@ -10785,7 +10785,7 @@
         <v>4</v>
       </c>
       <c r="K174">
-        <f>SUM(D174:J174)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L174" t="str">
@@ -10795,7 +10795,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B175">
         <v>126</v>
@@ -10825,7 +10825,7 @@
         <v>4</v>
       </c>
       <c r="K175">
-        <f>SUM(D175:J175)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L175" t="str">
@@ -10835,7 +10835,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B176">
         <v>223</v>
@@ -10865,7 +10865,7 @@
         <v>4</v>
       </c>
       <c r="K176">
-        <f>SUM(D176:J176)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L176" t="str">
@@ -10875,7 +10875,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B177">
         <v>277</v>
@@ -10905,7 +10905,7 @@
         <v>4</v>
       </c>
       <c r="K177">
-        <f>SUM(D177:J177)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L177" t="str">
@@ -10915,7 +10915,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B178">
         <v>78</v>
@@ -10945,7 +10945,7 @@
         <v>4</v>
       </c>
       <c r="K178">
-        <f>SUM(D178:J178)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L178" t="str">
@@ -10955,7 +10955,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B179">
         <v>283</v>
@@ -10985,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="K179">
-        <f>SUM(D179:J179)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L179" t="str">
@@ -10995,7 +10995,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B180">
         <v>140</v>
@@ -11025,7 +11025,7 @@
         <v>3</v>
       </c>
       <c r="K180">
-        <f>SUM(D180:J180)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L180" t="str">
@@ -11035,7 +11035,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B181">
         <v>214</v>
@@ -11065,7 +11065,7 @@
         <v>3</v>
       </c>
       <c r="K181">
-        <f>SUM(D181:J181)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L181" t="str">
@@ -11075,7 +11075,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B182">
         <v>293</v>
@@ -11105,7 +11105,7 @@
         <v>3</v>
       </c>
       <c r="K182">
-        <f>SUM(D182:J182)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L182" t="str">
@@ -11145,7 +11145,7 @@
         <v>2</v>
       </c>
       <c r="K183">
-        <f>SUM(D183:J183)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L183" t="str">
@@ -11155,7 +11155,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B184">
         <v>295</v>
@@ -11185,7 +11185,7 @@
         <v>9</v>
       </c>
       <c r="K184">
-        <f>SUM(D184:J184)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L184" t="str">
@@ -11195,7 +11195,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B185">
         <v>62</v>
@@ -11225,7 +11225,7 @@
         <v>5</v>
       </c>
       <c r="K185">
-        <f>SUM(D185:J185)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L185" t="str">
@@ -11235,7 +11235,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B186">
         <v>136</v>
@@ -11265,7 +11265,7 @@
         <v>5</v>
       </c>
       <c r="K186">
-        <f>SUM(D186:J186)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L186" t="str">
@@ -11275,7 +11275,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B187">
         <v>171</v>
@@ -11305,7 +11305,7 @@
         <v>6</v>
       </c>
       <c r="K187">
-        <f>SUM(D187:J187)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L187" t="str">
@@ -11315,7 +11315,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B188">
         <v>166</v>
@@ -11345,7 +11345,7 @@
         <v>7</v>
       </c>
       <c r="K188">
-        <f>SUM(D188:J188)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L188" t="str">
@@ -11355,7 +11355,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B189">
         <v>113</v>
@@ -11385,7 +11385,7 @@
         <v>8</v>
       </c>
       <c r="K189">
-        <f>SUM(D189:J189)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L189" t="str">
@@ -11395,7 +11395,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B190">
         <v>168</v>
@@ -11425,7 +11425,7 @@
         <v>9</v>
       </c>
       <c r="K190">
-        <f>SUM(D190:J190)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L190" t="str">
@@ -11435,7 +11435,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191">
         <v>141</v>
@@ -11465,7 +11465,7 @@
         <v>3</v>
       </c>
       <c r="K191">
-        <f>SUM(D191:J191)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="L191" t="str">
@@ -11475,7 +11475,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B192">
         <v>31</v>
@@ -11505,7 +11505,7 @@
         <v>2</v>
       </c>
       <c r="K192">
-        <f>SUM(D192:J192)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="L192" t="str">
@@ -11515,7 +11515,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193">
         <v>266</v>
@@ -11545,7 +11545,7 @@
         <v>2</v>
       </c>
       <c r="K193">
-        <f>SUM(D193:J193)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="L193" t="str">
@@ -11555,7 +11555,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B194">
         <v>152</v>
@@ -11585,7 +11585,7 @@
         <v>3</v>
       </c>
       <c r="K194">
-        <f>SUM(D194:J194)</f>
+        <f t="shared" ref="K194:K257" si="3">SUM(D194:J194)</f>
         <v>35</v>
       </c>
       <c r="L194" t="str">
@@ -11595,7 +11595,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B195">
         <v>22</v>
@@ -11625,7 +11625,7 @@
         <v>6</v>
       </c>
       <c r="K195">
-        <f>SUM(D195:J195)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="L195" t="str">
@@ -11635,7 +11635,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B196">
         <v>175</v>
@@ -11665,7 +11665,7 @@
         <v>8</v>
       </c>
       <c r="K196">
-        <f>SUM(D196:J196)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="L196" t="str">
@@ -11675,7 +11675,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B197">
         <v>94</v>
@@ -11705,7 +11705,7 @@
         <v>2</v>
       </c>
       <c r="K197">
-        <f>SUM(D197:J197)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L197" t="str">
@@ -11715,7 +11715,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B198">
         <v>178</v>
@@ -11745,7 +11745,7 @@
         <v>4</v>
       </c>
       <c r="K198">
-        <f>SUM(D198:J198)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L198" t="str">
@@ -11785,7 +11785,7 @@
         <v>3</v>
       </c>
       <c r="K199">
-        <f>SUM(D199:J199)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L199" t="str">
@@ -11795,7 +11795,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B200">
         <v>35</v>
@@ -11825,7 +11825,7 @@
         <v>3</v>
       </c>
       <c r="K200">
-        <f>SUM(D200:J200)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L200" t="str">
@@ -11835,7 +11835,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B201">
         <v>259</v>
@@ -11865,7 +11865,7 @@
         <v>3</v>
       </c>
       <c r="K201">
-        <f>SUM(D201:J201)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L201" t="str">
@@ -11875,7 +11875,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B202">
         <v>110</v>
@@ -11905,7 +11905,7 @@
         <v>4</v>
       </c>
       <c r="K202">
-        <f>SUM(D202:J202)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L202" t="str">
@@ -11915,7 +11915,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B203">
         <v>302</v>
@@ -11945,7 +11945,7 @@
         <v>3</v>
       </c>
       <c r="K203">
-        <f>SUM(D203:J203)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L203" t="str">
@@ -11955,7 +11955,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B204">
         <v>264</v>
@@ -11985,7 +11985,7 @@
         <v>4</v>
       </c>
       <c r="K204">
-        <f>SUM(D204:J204)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L204" t="str">
@@ -11995,7 +11995,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B205">
         <v>170</v>
@@ -12025,7 +12025,7 @@
         <v>4</v>
       </c>
       <c r="K205">
-        <f>SUM(D205:J205)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L205" t="str">
@@ -12035,7 +12035,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B206">
         <v>18</v>
@@ -12065,7 +12065,7 @@
         <v>7</v>
       </c>
       <c r="K206">
-        <f>SUM(D206:J206)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L206" t="str">
@@ -12075,7 +12075,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B207">
         <v>303</v>
@@ -12105,7 +12105,7 @@
         <v>7</v>
       </c>
       <c r="K207">
-        <f>SUM(D207:J207)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L207" t="str">
@@ -12115,7 +12115,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B208">
         <v>100</v>
@@ -12145,7 +12145,7 @@
         <v>7</v>
       </c>
       <c r="K208">
-        <f>SUM(D208:J208)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L208" t="str">
@@ -12155,7 +12155,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B209">
         <v>233</v>
@@ -12185,7 +12185,7 @@
         <v>6</v>
       </c>
       <c r="K209">
-        <f>SUM(D209:J209)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L209" t="str">
@@ -12195,7 +12195,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B210">
         <v>127</v>
@@ -12225,7 +12225,7 @@
         <v>9</v>
       </c>
       <c r="K210">
-        <f>SUM(D210:J210)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L210" t="str">
@@ -12235,7 +12235,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B211">
         <v>13</v>
@@ -12265,7 +12265,7 @@
         <v>5</v>
       </c>
       <c r="K211">
-        <f>SUM(D211:J211)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L211" t="str">
@@ -12275,7 +12275,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B212">
         <v>155</v>
@@ -12305,7 +12305,7 @@
         <v>8</v>
       </c>
       <c r="K212">
-        <f>SUM(D212:J212)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L212" t="str">
@@ -12315,7 +12315,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B213">
         <v>258</v>
@@ -12345,7 +12345,7 @@
         <v>9</v>
       </c>
       <c r="K213">
-        <f>SUM(D213:J213)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L213" t="str">
@@ -12355,7 +12355,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B214">
         <v>149</v>
@@ -12385,7 +12385,7 @@
         <v>6</v>
       </c>
       <c r="K214">
-        <f>SUM(D214:J214)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L214" t="str">
@@ -12395,7 +12395,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B215">
         <v>265</v>
@@ -12425,7 +12425,7 @@
         <v>7</v>
       </c>
       <c r="K215">
-        <f>SUM(D215:J215)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L215" t="str">
@@ -12435,7 +12435,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B216">
         <v>72</v>
@@ -12465,7 +12465,7 @@
         <v>7</v>
       </c>
       <c r="K216">
-        <f>SUM(D216:J216)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L216" t="str">
@@ -12475,7 +12475,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B217">
         <v>237</v>
@@ -12505,7 +12505,7 @@
         <v>8</v>
       </c>
       <c r="K217">
-        <f>SUM(D217:J217)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L217" t="str">
@@ -12515,7 +12515,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B218">
         <v>56</v>
@@ -12545,7 +12545,7 @@
         <v>9</v>
       </c>
       <c r="K218">
-        <f>SUM(D218:J218)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L218" t="str">
@@ -12555,7 +12555,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B219">
         <v>145</v>
@@ -12585,7 +12585,7 @@
         <v>9</v>
       </c>
       <c r="K219">
-        <f>SUM(D219:J219)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="L219" t="str">
@@ -12595,7 +12595,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B220">
         <v>224</v>
@@ -12625,7 +12625,7 @@
         <v>6</v>
       </c>
       <c r="K220">
-        <f>SUM(D220:J220)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L220" t="str">
@@ -12635,7 +12635,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B221">
         <v>199</v>
@@ -12665,7 +12665,7 @@
         <v>3</v>
       </c>
       <c r="K221">
-        <f>SUM(D221:J221)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L221" t="str">
@@ -12675,7 +12675,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B222">
         <v>76</v>
@@ -12705,7 +12705,7 @@
         <v>3</v>
       </c>
       <c r="K222">
-        <f>SUM(D222:J222)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L222" t="str">
@@ -12715,7 +12715,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B223">
         <v>144</v>
@@ -12745,7 +12745,7 @@
         <v>3</v>
       </c>
       <c r="K223">
-        <f>SUM(D223:J223)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L223" t="str">
@@ -12755,7 +12755,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B224">
         <v>210</v>
@@ -12785,7 +12785,7 @@
         <v>8</v>
       </c>
       <c r="K224">
-        <f>SUM(D224:J224)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L224" t="str">
@@ -12795,7 +12795,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B225">
         <v>119</v>
@@ -12825,7 +12825,7 @@
         <v>4</v>
       </c>
       <c r="K225">
-        <f>SUM(D225:J225)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L225" t="str">
@@ -12835,7 +12835,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B226">
         <v>251</v>
@@ -12865,7 +12865,7 @@
         <v>8</v>
       </c>
       <c r="K226">
-        <f>SUM(D226:J226)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L226" t="str">
@@ -12875,7 +12875,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B227">
         <v>60</v>
@@ -12905,7 +12905,7 @@
         <v>4</v>
       </c>
       <c r="K227">
-        <f>SUM(D227:J227)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L227" t="str">
@@ -12915,7 +12915,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B228">
         <v>120</v>
@@ -12945,7 +12945,7 @@
         <v>8</v>
       </c>
       <c r="K228">
-        <f>SUM(D228:J228)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L228" t="str">
@@ -12955,7 +12955,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B229">
         <v>67</v>
@@ -12985,7 +12985,7 @@
         <v>5</v>
       </c>
       <c r="K229">
-        <f>SUM(D229:J229)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L229" t="str">
@@ -13025,7 +13025,7 @@
         <v>6</v>
       </c>
       <c r="K230">
-        <f>SUM(D230:J230)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L230" t="str">
@@ -13035,7 +13035,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B231">
         <v>174</v>
@@ -13065,7 +13065,7 @@
         <v>7</v>
       </c>
       <c r="K231">
-        <f>SUM(D231:J231)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L231" t="str">
@@ -13075,7 +13075,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B232">
         <v>117</v>
@@ -13105,7 +13105,7 @@
         <v>5</v>
       </c>
       <c r="K232">
-        <f>SUM(D232:J232)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="L232" t="str">
@@ -13115,7 +13115,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B233">
         <v>25</v>
@@ -13145,7 +13145,7 @@
         <v>3</v>
       </c>
       <c r="K233">
-        <f>SUM(D233:J233)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="L233" t="str">
@@ -13155,7 +13155,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B234">
         <v>57</v>
@@ -13185,7 +13185,7 @@
         <v>5</v>
       </c>
       <c r="K234">
-        <f>SUM(D234:J234)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="L234" t="str">
@@ -13195,7 +13195,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B235">
         <v>285</v>
@@ -13225,7 +13225,7 @@
         <v>6</v>
       </c>
       <c r="K235">
-        <f>SUM(D235:J235)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="L235" t="str">
@@ -13235,7 +13235,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B236">
         <v>202</v>
@@ -13265,7 +13265,7 @@
         <v>9</v>
       </c>
       <c r="K236">
-        <f>SUM(D236:J236)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="L236" t="str">
@@ -13275,7 +13275,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B237">
         <v>200</v>
@@ -13305,7 +13305,7 @@
         <v>3</v>
       </c>
       <c r="K237">
-        <f>SUM(D237:J237)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L237" t="str">
@@ -13315,7 +13315,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B238">
         <v>234</v>
@@ -13345,7 +13345,7 @@
         <v>4</v>
       </c>
       <c r="K238">
-        <f>SUM(D238:J238)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L238" t="str">
@@ -13355,7 +13355,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B239">
         <v>247</v>
@@ -13385,7 +13385,7 @@
         <v>3</v>
       </c>
       <c r="K239">
-        <f>SUM(D239:J239)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L239" t="str">
@@ -13395,7 +13395,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B240">
         <v>281</v>
@@ -13425,7 +13425,7 @@
         <v>1</v>
       </c>
       <c r="K240">
-        <f>SUM(D240:J240)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L240" t="str">
@@ -13435,7 +13435,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B241">
         <v>158</v>
@@ -13465,7 +13465,7 @@
         <v>4</v>
       </c>
       <c r="K241">
-        <f>SUM(D241:J241)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L241" t="str">
@@ -13475,7 +13475,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B242">
         <v>4</v>
@@ -13505,7 +13505,7 @@
         <v>2</v>
       </c>
       <c r="K242">
-        <f>SUM(D242:J242)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L242" t="str">
@@ -13515,7 +13515,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B243">
         <v>54</v>
@@ -13545,7 +13545,7 @@
         <v>3</v>
       </c>
       <c r="K243">
-        <f>SUM(D243:J243)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L243" t="str">
@@ -13555,7 +13555,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B244">
         <v>7</v>
@@ -13585,7 +13585,7 @@
         <v>4</v>
       </c>
       <c r="K244">
-        <f>SUM(D244:J244)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L244" t="str">
@@ -13595,7 +13595,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B245">
         <v>276</v>
@@ -13625,7 +13625,7 @@
         <v>4</v>
       </c>
       <c r="K245">
-        <f>SUM(D245:J245)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L245" t="str">
@@ -13635,7 +13635,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B246">
         <v>11</v>
@@ -13665,7 +13665,7 @@
         <v>7</v>
       </c>
       <c r="K246">
-        <f>SUM(D246:J246)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L246" t="str">
@@ -13675,7 +13675,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B247">
         <v>226</v>
@@ -13705,7 +13705,7 @@
         <v>7</v>
       </c>
       <c r="K247">
-        <f>SUM(D247:J247)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L247" t="str">
@@ -13715,7 +13715,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B248">
         <v>271</v>
@@ -13745,7 +13745,7 @@
         <v>8</v>
       </c>
       <c r="K248">
-        <f>SUM(D248:J248)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="L248" t="str">
@@ -13755,7 +13755,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B249">
         <v>89</v>
@@ -13785,7 +13785,7 @@
         <v>4</v>
       </c>
       <c r="K249">
-        <f>SUM(D249:J249)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L249" t="str">
@@ -13795,7 +13795,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B250">
         <v>40</v>
@@ -13825,7 +13825,7 @@
         <v>3</v>
       </c>
       <c r="K250">
-        <f>SUM(D250:J250)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L250" t="str">
@@ -13835,7 +13835,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B251">
         <v>91</v>
@@ -13865,7 +13865,7 @@
         <v>5</v>
       </c>
       <c r="K251">
-        <f>SUM(D251:J251)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L251" t="str">
@@ -13875,7 +13875,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B252">
         <v>55</v>
@@ -13905,7 +13905,7 @@
         <v>3</v>
       </c>
       <c r="K252">
-        <f>SUM(D252:J252)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L252" t="str">
@@ -13915,7 +13915,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B253">
         <v>212</v>
@@ -13945,7 +13945,7 @@
         <v>9</v>
       </c>
       <c r="K253">
-        <f>SUM(D253:J253)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L253" t="str">
@@ -13955,7 +13955,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B254">
         <v>157</v>
@@ -13985,7 +13985,7 @@
         <v>6</v>
       </c>
       <c r="K254">
-        <f>SUM(D254:J254)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L254" t="str">
@@ -13995,7 +13995,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B255">
         <v>123</v>
@@ -14025,7 +14025,7 @@
         <v>3</v>
       </c>
       <c r="K255">
-        <f>SUM(D255:J255)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L255" t="str">
@@ -14035,7 +14035,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B256">
         <v>182</v>
@@ -14065,7 +14065,7 @@
         <v>9</v>
       </c>
       <c r="K256">
-        <f>SUM(D256:J256)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L256" t="str">
@@ -14075,7 +14075,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B257">
         <v>208</v>
@@ -14105,7 +14105,7 @@
         <v>9</v>
       </c>
       <c r="K257">
-        <f>SUM(D257:J257)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L257" t="str">
@@ -14115,7 +14115,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B258">
         <v>257</v>
@@ -14145,7 +14145,7 @@
         <v>9</v>
       </c>
       <c r="K258">
-        <f>SUM(D258:J258)</f>
+        <f t="shared" ref="K258:K321" si="4">SUM(D258:J258)</f>
         <v>30</v>
       </c>
       <c r="L258" t="str">
@@ -14155,7 +14155,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B259">
         <v>88</v>
@@ -14185,7 +14185,7 @@
         <v>2</v>
       </c>
       <c r="K259">
-        <f>SUM(D259:J259)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="L259" t="str">
@@ -14195,7 +14195,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B260">
         <v>108</v>
@@ -14225,7 +14225,7 @@
         <v>3</v>
       </c>
       <c r="K260">
-        <f>SUM(D260:J260)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="L260" t="str">
@@ -14235,7 +14235,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B261">
         <v>41</v>
@@ -14265,7 +14265,7 @@
         <v>1</v>
       </c>
       <c r="K261">
-        <f>SUM(D261:J261)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="L261" t="str">
@@ -14275,7 +14275,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B262">
         <v>287</v>
@@ -14305,7 +14305,7 @@
         <v>5</v>
       </c>
       <c r="K262">
-        <f>SUM(D262:J262)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="L262" t="str">
@@ -14315,7 +14315,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B263">
         <v>243</v>
@@ -14345,7 +14345,7 @@
         <v>3</v>
       </c>
       <c r="K263">
-        <f>SUM(D263:J263)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="L263" t="str">
@@ -14355,7 +14355,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B264">
         <v>160</v>
@@ -14385,7 +14385,7 @@
         <v>3</v>
       </c>
       <c r="K264">
-        <f>SUM(D264:J264)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="L264" t="str">
@@ -14395,7 +14395,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B265">
         <v>51</v>
@@ -14425,7 +14425,7 @@
         <v>6</v>
       </c>
       <c r="K265">
-        <f>SUM(D265:J265)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="L265" t="str">
@@ -14435,7 +14435,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B266">
         <v>69</v>
@@ -14465,7 +14465,7 @@
         <v>4</v>
       </c>
       <c r="K266">
-        <f>SUM(D266:J266)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="L266" t="str">
@@ -14475,7 +14475,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -14505,7 +14505,7 @@
         <v>9</v>
       </c>
       <c r="K267">
-        <f>SUM(D267:J267)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="L267" t="str">
@@ -14515,7 +14515,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B268">
         <v>246</v>
@@ -14545,7 +14545,7 @@
         <v>4</v>
       </c>
       <c r="K268">
-        <f>SUM(D268:J268)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L268" t="str">
@@ -14555,7 +14555,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B269">
         <v>75</v>
@@ -14585,7 +14585,7 @@
         <v>3</v>
       </c>
       <c r="K269">
-        <f>SUM(D269:J269)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L269" t="str">
@@ -14595,7 +14595,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B270">
         <v>52</v>
@@ -14625,7 +14625,7 @@
         <v>7</v>
       </c>
       <c r="K270">
-        <f>SUM(D270:J270)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L270" t="str">
@@ -14635,7 +14635,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B271">
         <v>236</v>
@@ -14665,7 +14665,7 @@
         <v>5</v>
       </c>
       <c r="K271">
-        <f>SUM(D271:J271)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L271" t="str">
@@ -14675,7 +14675,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B272">
         <v>138</v>
@@ -14705,7 +14705,7 @@
         <v>4</v>
       </c>
       <c r="K272">
-        <f>SUM(D272:J272)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L272" t="str">
@@ -14715,7 +14715,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B273">
         <v>272</v>
@@ -14745,7 +14745,7 @@
         <v>4</v>
       </c>
       <c r="K273">
-        <f>SUM(D273:J273)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L273" t="str">
@@ -14755,7 +14755,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B274">
         <v>146</v>
@@ -14785,7 +14785,7 @@
         <v>4</v>
       </c>
       <c r="K274">
-        <f>SUM(D274:J274)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L274" t="str">
@@ -14795,7 +14795,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B275">
         <v>218</v>
@@ -14825,7 +14825,7 @@
         <v>7</v>
       </c>
       <c r="K275">
-        <f>SUM(D275:J275)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L275" t="str">
@@ -14835,7 +14835,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B276">
         <v>179</v>
@@ -14865,7 +14865,7 @@
         <v>9</v>
       </c>
       <c r="K276">
-        <f>SUM(D276:J276)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L276" t="str">
@@ -14875,7 +14875,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B277">
         <v>248</v>
@@ -14905,7 +14905,7 @@
         <v>1</v>
       </c>
       <c r="K277">
-        <f>SUM(D277:J277)</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="L277" t="str">
@@ -14915,7 +14915,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B278">
         <v>173</v>
@@ -14945,7 +14945,7 @@
         <v>4</v>
       </c>
       <c r="K278">
-        <f>SUM(D278:J278)</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="L278" t="str">
@@ -14955,7 +14955,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B279">
         <v>129</v>
@@ -14985,7 +14985,7 @@
         <v>2</v>
       </c>
       <c r="K279">
-        <f>SUM(D279:J279)</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="L279" t="str">
@@ -14995,7 +14995,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B280">
         <v>230</v>
@@ -15025,7 +15025,7 @@
         <v>3</v>
       </c>
       <c r="K280">
-        <f>SUM(D280:J280)</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="L280" t="str">
@@ -15035,7 +15035,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B281">
         <v>71</v>
@@ -15065,7 +15065,7 @@
         <v>3</v>
       </c>
       <c r="K281">
-        <f>SUM(D281:J281)</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="L281" t="str">
@@ -15075,7 +15075,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B282">
         <v>137</v>
@@ -15105,7 +15105,7 @@
         <v>6</v>
       </c>
       <c r="K282">
-        <f>SUM(D282:J282)</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="L282" t="str">
@@ -15115,7 +15115,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B283">
         <v>24</v>
@@ -15145,7 +15145,7 @@
         <v>4</v>
       </c>
       <c r="K283">
-        <f>SUM(D283:J283)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L283" t="str">
@@ -15155,7 +15155,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B284">
         <v>14</v>
@@ -15185,7 +15185,7 @@
         <v>4</v>
       </c>
       <c r="K284">
-        <f>SUM(D284:J284)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L284" t="str">
@@ -15195,7 +15195,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B285">
         <v>161</v>
@@ -15225,7 +15225,7 @@
         <v>3</v>
       </c>
       <c r="K285">
-        <f>SUM(D285:J285)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L285" t="str">
@@ -15265,7 +15265,7 @@
         <v>8</v>
       </c>
       <c r="K286">
-        <f>SUM(D286:J286)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L286" t="str">
@@ -15275,7 +15275,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>215</v>
@@ -15305,7 +15305,7 @@
         <v>6</v>
       </c>
       <c r="K287">
-        <f>SUM(D287:J287)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L287" t="str">
@@ -15315,7 +15315,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B288">
         <v>128</v>
@@ -15345,7 +15345,7 @@
         <v>4</v>
       </c>
       <c r="K288">
-        <f>SUM(D288:J288)</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="L288" t="str">
@@ -15355,7 +15355,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B289">
         <v>104</v>
@@ -15385,7 +15385,7 @@
         <v>4</v>
       </c>
       <c r="K289">
-        <f>SUM(D289:J289)</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="L289" t="str">
@@ -15395,7 +15395,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B290">
         <v>34</v>
@@ -15425,7 +15425,7 @@
         <v>7</v>
       </c>
       <c r="K290">
-        <f>SUM(D290:J290)</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="L290" t="str">
@@ -15435,7 +15435,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B291">
         <v>118</v>
@@ -15465,7 +15465,7 @@
         <v>3</v>
       </c>
       <c r="K291">
-        <f>SUM(D291:J291)</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L291" t="str">
@@ -15475,7 +15475,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B292">
         <v>125</v>
@@ -15505,7 +15505,7 @@
         <v>1</v>
       </c>
       <c r="K292">
-        <f>SUM(D292:J292)</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L292" t="str">
@@ -15515,7 +15515,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B293">
         <v>130</v>
@@ -15545,7 +15545,7 @@
         <v>3</v>
       </c>
       <c r="K293">
-        <f>SUM(D293:J293)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="L293" t="str">
@@ -15555,7 +15555,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B294">
         <v>42</v>
@@ -15585,7 +15585,7 @@
         <v>2</v>
       </c>
       <c r="K294">
-        <f>SUM(D294:J294)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="L294" t="str">
@@ -15595,7 +15595,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B295">
         <v>159</v>
@@ -15625,7 +15625,7 @@
         <v>3</v>
       </c>
       <c r="K295">
-        <f>SUM(D295:J295)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="L295" t="str">
@@ -15635,7 +15635,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B296">
         <v>19</v>
@@ -15665,7 +15665,7 @@
         <v>5</v>
       </c>
       <c r="K296">
-        <f>SUM(D296:J296)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="L296" t="str">
@@ -15675,7 +15675,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B297">
         <v>209</v>
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="K297">
-        <f>SUM(D297:J297)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="L297" t="str">
@@ -15715,7 +15715,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B298">
         <v>246</v>
@@ -15745,7 +15745,7 @@
         <v>3</v>
       </c>
       <c r="K298">
-        <f>SUM(D298:J298)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="L298" t="str">
@@ -15755,7 +15755,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B299">
         <v>195</v>
@@ -15785,7 +15785,7 @@
         <v>2</v>
       </c>
       <c r="K299">
-        <f>SUM(D299:J299)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="L299" t="str">
@@ -15795,7 +15795,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="D300">
         <v>4</v>
@@ -15819,17 +15819,17 @@
         <v>3</v>
       </c>
       <c r="K300">
-        <f>SUM(D300:J300)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="L300" t="str">
+      <c r="L300" t="e">
         <f>_xlfn.XLOOKUP(A300,[1]Sheet1!$A:$A,[1]Sheet1!$HD:$HD)</f>
-        <v>शंकर दिलीप यशोद</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B301">
         <v>5</v>
@@ -15859,7 +15859,7 @@
         <v>2</v>
       </c>
       <c r="K301">
-        <f>SUM(D301:J301)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="L301" t="str">
@@ -15869,7 +15869,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B302">
         <v>253</v>
@@ -15899,7 +15899,7 @@
         <v>5</v>
       </c>
       <c r="K302">
-        <f>SUM(D302:J302)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="L302" t="str">
@@ -15909,7 +15909,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B303">
         <v>201</v>
@@ -15939,7 +15939,7 @@
         <v>2</v>
       </c>
       <c r="K303">
-        <f>SUM(D303:J303)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="L303" t="str">
@@ -15949,7 +15949,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B304">
         <v>8</v>
@@ -15979,7 +15979,7 @@
         <v>2</v>
       </c>
       <c r="K304">
-        <f>SUM(D304:J304)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="L304" t="str">
